--- a/capitol_arrests/raw/latest_extremism.xlsx
+++ b/capitol_arrests/raw/latest_extremism.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonal\Documents\GWPOE\Resources\Capitol Hill Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96268D-B348-4C2A-A299-4C2E5CCF3DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5A5975-8D55-401A-912B-CBDAF17C742C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Capitol Hill" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Capitol Hill'!$A$2:$E$914</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Capitol Hill'!$A$2:$E$915</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t>NAME</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>HERNANDEZ, Emily</t>
+  </si>
+  <si>
+    <t>MISH, David</t>
   </si>
 </sst>
 </file>
@@ -629,13 +632,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1317,95 +1320,95 @@
     </row>
     <row r="40" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="4">
-        <v>34</v>
+        <v>92</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="12">
-        <v>44207</v>
+        <v>9</v>
+      </c>
+      <c r="E40" s="11">
+        <v>44211</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="11">
-        <v>44206</v>
+        <v>5</v>
+      </c>
+      <c r="E41" s="12">
+        <v>44207</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="4">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E42" s="11">
-        <v>44203</v>
+        <v>44206</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="4">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E43" s="11">
-        <v>44208</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="12">
-        <v>44207</v>
+        <v>7</v>
+      </c>
+      <c r="E44" s="11">
+        <v>44208</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>25</v>
@@ -1413,159 +1416,162 @@
       <c r="D45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="12"/>
+      <c r="E45" s="12">
+        <v>44207</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="4">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="12">
-        <v>44210</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
+      </c>
+      <c r="B47" s="4">
+        <v>49</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="11">
-        <v>44203</v>
+        <v>12</v>
+      </c>
+      <c r="E47" s="12">
+        <v>44210</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="4">
-        <v>47</v>
+        <v>74</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="12">
-        <v>44208</v>
+        <v>11</v>
+      </c>
+      <c r="E48" s="11">
+        <v>44203</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="4">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E49" s="12">
-        <v>44207</v>
+        <v>44208</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="B50" s="4">
+        <v>26</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="E50" s="12">
+        <v>44207</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="4">
-        <v>52</v>
+        <v>77</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="11">
-        <v>44203</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>9</v>
+        <v>78</v>
+      </c>
+      <c r="B52" s="4">
+        <v>52</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="E52" s="11">
+        <v>44203</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="4">
-        <v>55</v>
+        <v>79</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="12">
-        <v>44209</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>82</v>
+        <v>13</v>
+      </c>
+      <c r="E54" s="12">
+        <v>44209</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B55" s="4">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>25</v>
@@ -1576,69 +1582,83 @@
     </row>
     <row r="56" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="4">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="12">
-        <v>44210</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="4">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E57" s="12">
-        <v>44209</v>
+        <v>44210</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="4">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="11">
-        <v>44203</v>
+        <v>23</v>
+      </c>
+      <c r="E58" s="12">
+        <v>44209</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="4">
+        <v>58</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="11">
+        <v>44203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>44207</v>
       </c>
     </row>
